--- a/data/hotels_by_city/Houston/Houston_shard_123.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_123.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d7173372-Reviews-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Northwest-Cy-Fair.h8119910.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,363 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r544889036-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>7173372</t>
+  </si>
+  <si>
+    <t>544889036</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t>I was impressed by everything. Nice staff, clean, great decor, very spacious!!! Kinda a pain to get to, very close to a main interstate. Next to a Texas Roadhouse, so no need to go anywhere else for food. The train is very loud though.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r506001795-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506001795</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakfast review </t>
+  </si>
+  <si>
+    <t>This seems like a new or newly remodeled hotel. The fridge and microwave in the room was a plus. The breakfast area is a bit small, not ideal for large groups.  I feel like one more heated food option  (there was a meat and a egg in the server each day) or cut fruit option would put this closer to the level of a Hampton Inn or Holiday Inn Express. The Texas waffle maker is very fun, however it can only do 1 waffle every 2 or 2-1/2 minutes,  easy fix. The cookies available seemed like a nice touch (though not always available). There was a good selection of items at the pantry. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This seems like a new or newly remodeled hotel. The fridge and microwave in the room was a plus. The breakfast area is a bit small, not ideal for large groups.  I feel like one more heated food option  (there was a meat and a egg in the server each day) or cut fruit option would put this closer to the level of a Hampton Inn or Holiday Inn Express. The Texas waffle maker is very fun, however it can only do 1 waffle every 2 or 2-1/2 minutes,  easy fix. The cookies available seemed like a nice touch (though not always available). There was a good selection of items at the pantry. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r496702257-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496702257</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>This is the place to stay!</t>
+  </si>
+  <si>
+    <t>Great staff, new hotel, conveniently located and possibly one of the best selections of restaurants within walking distance. We're talking: Starbucks, Chuy's, Texas Roadhouse, Applebee's, Mamacita's and more.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r391815005-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391815005</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Bad Security</t>
+  </si>
+  <si>
+    <t>Very clean!! But dangerous area Very Bad security! They broke my passenger door glass and took all of my belongings...........Hotel and police didn't do anything about it, manager will not eve let me some off the cameras they at hotel, Will not recommend NOT WORTH THE STAY!!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r384541503-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>384541503</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Comfort at Comfort Suites</t>
+  </si>
+  <si>
+    <t>I have stayed at this Comfort Suite many times, consistently clean with a friendly attentive staff.  The rooms are always fresh without any sort of smell...very important to me.  The proximity of the location works great for the Houston area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r383166239-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383166239</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Botched Reservation</t>
+  </si>
+  <si>
+    <t>Had reservations for 4 rooms 2 nights.This  hotel OVERBOOKED and would not honor reservation. Phoned Comfort suits direct they were not much help.Finally located us rooms in Jersey Village after we had secured other accommodations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r363376910-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363376910</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Perfect place!</t>
+  </si>
+  <si>
+    <t>This hotel was perfect for needs. It was extrememly clean, the staff was very friendly and accommodating. Ex: Our TV remote was not working properly upon arrival, so I called down and they immediately brought us another one. Even received a surprise gift bag (chips, candy, water ) that afternoon as a token for the inconvenience!  Wow! The desk had fresh baked cookies for guests, and Dafne Torres, the General Manager, even offered us water as we were departing for our trip home! What service! The only negatives was that the bathtub was a bit slippery and the lighting in the bathroom was not great for applying make-up. ( maybe that was a good thing..LOL) I highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This hotel was perfect for needs. It was extrememly clean, the staff was very friendly and accommodating. Ex: Our TV remote was not working properly upon arrival, so I called down and they immediately brought us another one. Even received a surprise gift bag (chips, candy, water ) that afternoon as a token for the inconvenience!  Wow! The desk had fresh baked cookies for guests, and Dafne Torres, the General Manager, even offered us water as we were departing for our trip home! What service! The only negatives was that the bathtub was a bit slippery and the lighting in the bathroom was not great for applying make-up. ( maybe that was a good thing..LOL) I highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r363370387-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363370387</t>
+  </si>
+  <si>
+    <t>VERY NICE HOTEL</t>
+  </si>
+  <si>
+    <t>I was in Houston for a wedding reception this past weekend.  The Comfort Suites Houston Northwest Cy-Fair was one of the hotels recommended by the bride and groom for their wedding weekend.  This property was built in 2014 and still smells new and clean.  I was impressed with the high level of customer service and quality that was offered at this hotel.  The room was very clean, bed was SUPER comfy, and my sleep was restful and restorative.  Dafne Torres is the manager of this property, she took the time to ask me about our stay and even took the time to comp bottles of chilled water for the road.  The smell of freshly baked cookies rounds out this rather sweet review.  If my travel needs ever call for me to be in Houston again, I will be returning to this property.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I was in Houston for a wedding reception this past weekend.  The Comfort Suites Houston Northwest Cy-Fair was one of the hotels recommended by the bride and groom for their wedding weekend.  This property was built in 2014 and still smells new and clean.  I was impressed with the high level of customer service and quality that was offered at this hotel.  The room was very clean, bed was SUPER comfy, and my sleep was restful and restorative.  Dafne Torres is the manager of this property, she took the time to ask me about our stay and even took the time to comp bottles of chilled water for the road.  The smell of freshly baked cookies rounds out this rather sweet review.  If my travel needs ever call for me to be in Houston again, I will be returning to this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r357829648-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357829648</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO POOL!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a long drive with my family,  we were looking forward to a pool.  It never crossed my mind to check if they had a pool.  The room was big,  the beds were very comfortable.  The room was clean and the setup was nice.  The front desk staff were nice and helpful. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r344639737-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344639737</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Regular customer</t>
+  </si>
+  <si>
+    <t>Hotel personnel are always courteous and helpful. Very personable and accommodating every visit to this property. Rooms are always clean and well kept. Housekeeping does a great job. Counter hostesses are nice, attractive and personable with customers. They are always willing to go out of their way to make my stays the most comfortable as possible.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r340966806-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340966806</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Only one problem</t>
+  </si>
+  <si>
+    <t>We just had our stay at the hotel last weekend on Saturday Jan. 16th for the night, and had a great experience as far as a comfortable and clean room. The free breakfast was great and the staff were extremely nice and was a pleasure to deal with.     The only problem I had was I booked my room over a month ago and was given the price of our room for 171.35 tax and all. Plus we recommended 3 other families to the hotel at which they all booked a room, as our kids had a competition in Jersey Village that we attended. One of the families we recommended were only charged 99.95 for the exact room and the same amount of guests as we had.      Not sure why that happened but I'm not very happy with this issue. Other than that the hotel would have got a 5 star rating from me. Comfort Suites you guys should figure out a way to keep it fair for all who book a room. If you'd like to contact me on this issue I'd be happy to discuss it further. My email is tbag13@live.com and my last name is Jara. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>We just had our stay at the hotel last weekend on Saturday Jan. 16th for the night, and had a great experience as far as a comfortable and clean room. The free breakfast was great and the staff were extremely nice and was a pleasure to deal with.     The only problem I had was I booked my room over a month ago and was given the price of our room for 171.35 tax and all. Plus we recommended 3 other families to the hotel at which they all booked a room, as our kids had a competition in Jersey Village that we attended. One of the families we recommended were only charged 99.95 for the exact room and the same amount of guests as we had.      Not sure why that happened but I'm not very happy with this issue. Other than that the hotel would have got a 5 star rating from me. Comfort Suites you guys should figure out a way to keep it fair for all who book a room. If you'd like to contact me on this issue I'd be happy to discuss it further. My email is tbag13@live.com and my last name is Jara. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r339925374-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339925374</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay in NW Houston</t>
+  </si>
+  <si>
+    <t>The property is less than 2 years old.  The room was more than spacious, The Lady who checked me in was very helpful, got me 10% off on my Dinner at the nearby steak house.  The room was immaculate, very clean.  The night was quiet, and the breakfast was very good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r269115372-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269115372</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>2 day Business Trip</t>
+  </si>
+  <si>
+    <t>New clean and friendly. Staff very attentive. Price was reasonable but not great. Decent location, quiet at night, good breakfast. Lots of food choices close by and access to major highways. I would stay here again.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r258115649-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258115649</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Refreshing</t>
+  </si>
+  <si>
+    <t>Very clean and staff was very friendly. Free beer and wine was a nice touch. Access to the hotel is difficult unless your familiar with the roadways and had to park next door at Texas Roadhouse because no parking was available.  Overall a very enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dafne T, Manager at Comfort Suites Houston Northwest Cy-Fair, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Very clean and staff was very friendly. Free beer and wine was a nice touch. Access to the hotel is difficult unless your familiar with the roadways and had to park next door at Texas Roadhouse because no parking was available.  Overall a very enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r254107389-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254107389</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>Great Property/Great People</t>
+  </si>
+  <si>
+    <t>Nice new hotel with fantastic employees.Good free breakfast.Kim Boatwright on the front desk went above the call to help us during our stay.The proximity of the property to a freeway overpass makes access confusing to the first timer, but is well worth the effort.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Dafne T, General Manager at Comfort Suites Houston Northwest Cy-Fair, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Nice new hotel with fantastic employees.Good free breakfast.Kim Boatwright on the front desk went above the call to help us during our stay.The proximity of the property to a freeway overpass makes access confusing to the first timer, but is well worth the effort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r246908731-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246908731</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>Newly rebuilt, very friendly staff</t>
+  </si>
+  <si>
+    <t>The hotel was rebuilt after being burned down and has only been reopened a few months.  It's obvious that much of the place is new.  Staff was extremely nice and helpful.  Breakfast was lacking somewhat, but not bad for the price (free!).  Our room was a suite, but it was essentially a regular room with a couch shoved in and the bed against the window so not really a suite.  I laid a jacket on the couch overnight and the next morning it had an odor of a campfire.  Smelled the couch and it smelled like the same.  Wondering if they didn't replace all the furniture after the fire.  Besides that it was a comfortable bed which is important to me and the room was clean.  Not quite a 5 star experience, but close.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>The hotel was rebuilt after being burned down and has only been reopened a few months.  It's obvious that much of the place is new.  Staff was extremely nice and helpful.  Breakfast was lacking somewhat, but not bad for the price (free!).  Our room was a suite, but it was essentially a regular room with a couch shoved in and the bed against the window so not really a suite.  I laid a jacket on the couch overnight and the next morning it had an odor of a campfire.  Smelled the couch and it smelled like the same.  Wondering if they didn't replace all the furniture after the fire.  Besides that it was a comfortable bed which is important to me and the room was clean.  Not quite a 5 star experience, but close.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r239506666-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239506666</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Wonderful hotel experience</t>
+  </si>
+  <si>
+    <t>This was one of our best hotel stays.  The manager, Dafne and the entire staff was very friendly and hospitable.  During our stay, we were treated as if we were staying at an individual's home.  Dafne and her team was attentive and quickly responded to our needs.  The breakfast and evening reception on Wednesday was also very nice and quite tasty!  I highly recommend this hotel!!!</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r237343218-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237343218</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>The perfect example of a great hotel with smart and friendly staff</t>
+  </si>
+  <si>
+    <t>Excellent hotel of this class. New property and kept extremely clean.  The front desk staff was very friendly, welcoming and knowledgeable of the area. Our stay was a week long and my co-works nor I had any complaints and never needed to call the front desk during our stay in town.  I personally had the pleasure of staying in the King suite with a kitchen, which was very enjoyable and useful when I didn’t feel like eating out. The room was very spacious, the bed I can only describe as AMAZING!!! Rosa the cleaning lady, made sure my room was exceptionally clean and always left 3 bottled waters in my room. The breakfast area down stairs is spacious. Fresh fruit and all the hot and cold items, were a delicious experience for my hungry morning tummy. The manager Dafne walked around every morning making sure everyone was enjoying their stay. Needless to say they handled our group very well, the parking was adequate with some overflow on both sides. Truly one of the best Comfort Suites I have visited in a long time.  I'll be back to this place and highly recommend to others when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel of this class. New property and kept extremely clean.  The front desk staff was very friendly, welcoming and knowledgeable of the area. Our stay was a week long and my co-works nor I had any complaints and never needed to call the front desk during our stay in town.  I personally had the pleasure of staying in the King suite with a kitchen, which was very enjoyable and useful when I didn’t feel like eating out. The room was very spacious, the bed I can only describe as AMAZING!!! Rosa the cleaning lady, made sure my room was exceptionally clean and always left 3 bottled waters in my room. The breakfast area down stairs is spacious. Fresh fruit and all the hot and cold items, were a delicious experience for my hungry morning tummy. The manager Dafne walked around every morning making sure everyone was enjoying their stay. Needless to say they handled our group very well, the parking was adequate with some overflow on both sides. Truly one of the best Comfort Suites I have visited in a long time.  I'll be back to this place and highly recommend to others when in the area.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +898,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +930,1147 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>132</v>
+      </c>
+      <c r="X15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_123.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_123.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r608193288-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>7173372</t>
+  </si>
+  <si>
+    <t>608193288</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Comfort Suites Houston Northwest Cy-Fair</t>
+  </si>
+  <si>
+    <t>Rooms clean and tidy and reasonably modern (I stay in one of the few suites which has it's own kitchenette). Stayed here a few times now over the last year due to business close by, staff are friendly and courteous. Quite a few eateries very close by, Mexican / Japanese (Toro Steakhouse and Sushi Bar - recommend!) / Steakhouse / BBQ all less than a minutes walk. Breakfast is served every morning but I don't think it is so good.....VERY basic and not really worth the bother if you are very hungry. (but maybe this is standard Comfort Suites fare, don't know as never stayed in another one.......(but not up to my experiences of Holiday Inn or Staybridge Suites)Other than the breakfast, I have no issue with staying here. Laundry is available though only 1 washer and 1 dryer for all guests ($2 each). Small shop in lobby for a few essentials and nibbles if you get a little hungry at night :)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Rooms clean and tidy and reasonably modern (I stay in one of the few suites which has it's own kitchenette). Stayed here a few times now over the last year due to business close by, staff are friendly and courteous. Quite a few eateries very close by, Mexican / Japanese (Toro Steakhouse and Sushi Bar - recommend!) / Steakhouse / BBQ all less than a minutes walk. Breakfast is served every morning but I don't think it is so good.....VERY basic and not really worth the bother if you are very hungry. (but maybe this is standard Comfort Suites fare, don't know as never stayed in another one.......(but not up to my experiences of Holiday Inn or Staybridge Suites)Other than the breakfast, I have no issue with staying here. Laundry is available though only 1 washer and 1 dryer for all guests ($2 each). Small shop in lobby for a few essentials and nibbles if you get a little hungry at night :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r589291499-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589291499</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice hotel </t>
+  </si>
+  <si>
+    <t>First time here and very impressed.  My room is very nice, clean and comfortable.  Staff was very friendly on arrival and explained in detail what was nearby.   Restaurants chains are within walking distance</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r587201103-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587201103</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Clean &amp; quiet!</t>
+  </si>
+  <si>
+    <t>The staff was courteous, friendly, and quite helpful. We had questions about where to go in the area. We were there for a graduation. The rooms was sparkling clean, and very comfortable. The breakfast was tasty, and there we choices for me and I'm gluten free. It's located in a high traffic area yet we enjoyed a quiet stay.Very well maintained hotel! Plenty of nearby restaurants to choose from.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r544889036-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>7173372</t>
-  </si>
-  <si>
     <t>544889036</t>
   </si>
   <si>
@@ -177,9 +237,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r506001795-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
   </si>
   <si>
@@ -222,6 +279,42 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r431832284-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431832284</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Love the new hotel!</t>
+  </si>
+  <si>
+    <t>Great newer hotel.  Both the morning and afternoon staff were very nice.  Clean and comfortable room.  Breakfast was good and well supplied. Nice to have so many restaurant options close by. Will definitely be staying here again!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r420682219-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420682219</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Great service, very clean</t>
+  </si>
+  <si>
+    <t>This hotel is spotless with extremely friendly staff! I checked in late on Sunday night &amp; the desk staff gave me an upgraded larger room. Breakfast area very clean with great food, very attentive staff. Rooms and hallways, you could eat off the floor, not a crumb or loose trash in sight.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r391815005-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
   </si>
   <si>
@@ -270,6 +363,42 @@
     <t>Had reservations for 4 rooms 2 nights.This  hotel OVERBOOKED and would not honor reservation. Phoned Comfort suits direct they were not much help.Finally located us rooms in Jersey Village after we had secured other accommodations.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r377329357-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377329357</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel it self is very clean. The employees are very professional. Rooms are well organized and clean. I really recomend this place. Includes complementary breakfast. The breakfast its not that wow but its ok for what you paid. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r377136430-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377136430</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel But Some Misses</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights for a nearby family event. New, nice, excellent staff but some misses for frequent travelers.  Pros: bed was good, good large TV, quite was large.we had 420, which is away from the elevator and at the end of the hall. There is traffic noise from Hwy. 6 in all rooms. Misses: poor lighting in suite and bathroom. Comfort Suites have a stupid furniture set-up with an ottoman instead of a coffee table and no end tables, so you have to put drinks on the floor.  The desk chair wouldn't raise high enough to use the desk, and it was the only chair in the room.  I don't think room designs ever stay in the rooms or interview frequent travelers. The hot water wasn't hot enough to shave.  Hotels should all be require to have a nightlight in the bathroom. Pillows were little and not good. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights for a nearby family event. New, nice, excellent staff but some misses for frequent travelers.  Pros: bed was good, good large TV, quite was large.we had 420, which is away from the elevator and at the end of the hall. There is traffic noise from Hwy. 6 in all rooms. Misses: poor lighting in suite and bathroom. Comfort Suites have a stupid furniture set-up with an ottoman instead of a coffee table and no end tables, so you have to put drinks on the floor.  The desk chair wouldn't raise high enough to use the desk, and it was the only chair in the room.  I don't think room designs ever stay in the rooms or interview frequent travelers. The hot water wasn't hot enough to shave.  Hotels should all be require to have a nightlight in the bathroom. Pillows were little and not good. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r363376910-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
   </si>
   <si>
@@ -288,9 +417,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>This hotel was perfect for needs. It was extrememly clean, the staff was very friendly and accommodating. Ex: Our TV remote was not working properly upon arrival, so I called down and they immediately brought us another one. Even received a surprise gift bag (chips, candy, water ) that afternoon as a token for the inconvenience!  Wow! The desk had fresh baked cookies for guests, and Dafne Torres, the General Manager, even offered us water as we were departing for our trip home! What service! The only negatives was that the bathtub was a bit slippery and the lighting in the bathroom was not great for applying make-up. ( maybe that was a good thing..LOL) I highly recommend this hotel!More</t>
   </si>
   <si>
@@ -330,6 +456,39 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r352813566-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352813566</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>Average hotel, reasonable price, rough location</t>
+  </si>
+  <si>
+    <t>Bought this stay by bidding on travel so didn't know where I was staying until I paid. The room was comfy but REALLY tired. Wet bar water didn't work, lav water needed to be fiddled with to get it to stop running, toilet flapper leaked so you could hear it run all night. One night when i turned the sheets down there was a huge (dried) bloodstain on the topsheet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r346261086-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346261086</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequent Traveler </t>
+  </si>
+  <si>
+    <t>Great hotel. The bed is very comfortable. Everything is very clean and updated. Nice free breakfast and convenient to other restaurants. You will not be disappointed! Looking forward in returning in May for my daughter's college graduation.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r344639737-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
   </si>
   <si>
@@ -381,6 +540,39 @@
     <t>The property is less than 2 years old.  The room was more than spacious, The Lady who checked me in was very helpful, got me 10% off on my Dinner at the nearby steak house.  The room was immaculate, very clean.  The night was quiet, and the breakfast was very good.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r317818004-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317818004</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Very pleasant staff and excellent accommodations.  Rooms were large and very quiet.  Hotel very clean and adjacent to restaurants that were a very short walk across the parking lots.  About the only two drawbacks were exiting onto Route 6 with traffic backed up at the intersection of 259 and I could not get the air conditioning to respond to the key pad to operate, finally had to unplug the unit it was so cold in the room.  I would stay here again without a second thought if returning to this part of Houston.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r271888241-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271888241</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>We stayed at the location on North Sam Houston Pky. It was excellent. The front desk gentleman named Chris was amazing. He was very helpful and helped us get a cab to the airport. Rooms were great, beds were comfortable. Great deal for the price.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r269115372-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
   </si>
   <si>
@@ -447,6 +639,42 @@
     <t>Nice new hotel with fantastic employees.Good free breakfast.Kim Boatwright on the front desk went above the call to help us during our stay.The proximity of the property to a freeway overpass makes access confusing to the first timer, but is well worth the effort.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r250769847-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250769847</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>Next to Texas Roadhouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice, updated hotel. Its clean &amp; staff are friendly. I would stay here again. The address is incorrect on Google Maps has the address wrong in their system, so try the address of the Texas Roadhouse instead. Its in the same parking lot. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r247774263-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247774263</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>This hotel has a complete remodel.  Our 2 queen bed room looks just like the pictures the hotel has on their website.  The room was very spacious and was very clean.  They just need to go lighter on the scent spray used when cleaning the room.  The windows do not open and I had to turn the fan on circulate the air.  They also put breakfast away 10 minutes early from the time posted.  These 2 things were not earth shattering and I would definitely stay there again.  The breakfast was not fantastic but average for this type of hotel.Note: road construction is happening around and near the hotel making it difficult to navigate.  Also, don't ask Siri to take you to the closest Comfort Suites when you are in the area.  We were near the hotel but it was very dark and I missed the road that I had planned to take. We had asked Siri. Apparently, there is another Comfort Suites about 15 minutes away on the same road.  We had a nice tour of Cypress late at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>This hotel has a complete remodel.  Our 2 queen bed room looks just like the pictures the hotel has on their website.  The room was very spacious and was very clean.  They just need to go lighter on the scent spray used when cleaning the room.  The windows do not open and I had to turn the fan on circulate the air.  They also put breakfast away 10 minutes early from the time posted.  These 2 things were not earth shattering and I would definitely stay there again.  The breakfast was not fantastic but average for this type of hotel.Note: road construction is happening around and near the hotel making it difficult to navigate.  Also, don't ask Siri to take you to the closest Comfort Suites when you are in the area.  We were near the hotel but it was very dark and I missed the road that I had planned to take. We had asked Siri. Apparently, there is another Comfort Suites about 15 minutes away on the same road.  We had a nice tour of Cypress late at night.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r246908731-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
   </si>
   <si>
@@ -505,6 +733,21 @@
   </si>
   <si>
     <t>Excellent hotel of this class. New property and kept extremely clean.  The front desk staff was very friendly, welcoming and knowledgeable of the area. Our stay was a week long and my co-works nor I had any complaints and never needed to call the front desk during our stay in town.  I personally had the pleasure of staying in the King suite with a kitchen, which was very enjoyable and useful when I didn’t feel like eating out. The room was very spacious, the bed I can only describe as AMAZING!!! Rosa the cleaning lady, made sure my room was exceptionally clean and always left 3 bottled waters in my room. The breakfast area down stairs is spacious. Fresh fruit and all the hot and cold items, were a delicious experience for my hungry morning tummy. The manager Dafne walked around every morning making sure everyone was enjoying their stay. Needless to say they handled our group very well, the parking was adequate with some overflow on both sides. Truly one of the best Comfort Suites I have visited in a long time.  I'll be back to this place and highly recommend to others when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7173372-r237113944-Comfort_Suites_Houston_Northwest_Cy_Fair-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237113944</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Thankfully Satisfied!</t>
+  </si>
+  <si>
+    <t>I've recently visited Houston, tx for work, I did not have a pleasent flight so i was very pleased to have reached my hotel, the staff were warm welcoming and very gracious.They offer a 24hr market place full of snack varieties even personals. Amazing rooms, the cleanliness is well maintained which turned my stay from one night to three. Easy access to highways and surrounded by great eats. I recommend this hotel to anyone looking for a quite place to rest after work, travel and or leisure. -k.moore</t>
   </si>
 </sst>
 </file>
@@ -1048,18 +1291,24 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1075,7 +1324,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1084,25 +1333,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1116,7 +1365,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1132,7 +1381,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1141,39 +1390,45 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1189,7 +1444,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1198,22 +1453,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -1230,7 +1485,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1246,7 +1501,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1255,22 +1510,26 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>78</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -1283,7 +1542,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1299,7 +1558,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1308,22 +1567,26 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -1336,7 +1599,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1352,7 +1615,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1361,36 +1624,32 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1413,7 +1672,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1422,34 +1681,32 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -1476,7 +1733,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1485,25 +1742,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1517,7 +1774,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -1533,7 +1790,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1542,45 +1799,35 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="s">
-        <v>109</v>
-      </c>
-      <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -1617,14 +1864,10 @@
         <v>114</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>109</v>
-      </c>
-      <c r="O12" t="s">
-        <v>90</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
@@ -1637,7 +1880,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13">
@@ -1653,7 +1896,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1662,43 +1905,39 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
         <v>117</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>118</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>119</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>120</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>109</v>
-      </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -1735,33 +1974,27 @@
         <v>125</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -1801,28 +2034,28 @@
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>132</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
         <v>133</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -1838,7 +2071,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1847,43 +2080,45 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
         <v>136</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>137</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
         <v>138</v>
-      </c>
-      <c r="L16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>140</v>
-      </c>
-      <c r="O16" t="s">
-        <v>90</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>141</v>
-      </c>
-      <c r="X16" t="s">
-        <v>133</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
@@ -1899,7 +2134,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1908,45 +2143,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
         <v>144</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>145</v>
       </c>
-      <c r="K17" t="s">
-        <v>146</v>
-      </c>
-      <c r="L17" t="s">
-        <v>147</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>148</v>
-      </c>
       <c r="O17" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
@@ -1962,7 +2191,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -1971,45 +2200,35 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>155</v>
-      </c>
-      <c r="O18" t="s">
-        <v>90</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -2025,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2034,43 +2253,907 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>162</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>178</v>
+      </c>
+      <c r="O23" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" t="s">
+        <v>189</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>190</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" t="s">
+        <v>195</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>190</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>196</v>
+      </c>
+      <c r="X26" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>199</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" t="s">
+        <v>202</v>
+      </c>
+      <c r="L27" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>204</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>205</v>
+      </c>
+      <c r="X27" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" t="s">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s">
+        <v>216</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>217</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>237</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62879</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" t="s">
+        <v>242</v>
+      </c>
+      <c r="L33" t="s">
+        <v>243</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>237</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
